--- a/MazeGo/Assets/CSV/GameData_LocalizationMazeData.xlsx
+++ b/MazeGo/Assets/CSV/GameData_LocalizationMazeData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\MazeGo\MazeGo\Assets\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\UnityProject\MazeGo\MazeGo\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC1FA1-F317-4AEE-81EC-3A9E4CDEDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15600" tabRatio="652"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffData" sheetId="3" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#columns</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,92 +49,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The vector of the end</t>
-  </si>
-  <si>
-    <t>终点之矢</t>
-  </si>
-  <si>
-    <t>时间的增量 I</t>
-  </si>
-  <si>
-    <t>Increment of time I</t>
-  </si>
-  <si>
-    <t>Increment of time II</t>
-  </si>
-  <si>
-    <t>时间的增量 II</t>
-  </si>
-  <si>
-    <t>Increment of time III</t>
-  </si>
-  <si>
-    <t>时间的增量 III</t>
-  </si>
-  <si>
-    <t>Overtime I</t>
-  </si>
-  <si>
-    <t>Overtime II</t>
-  </si>
-  <si>
-    <t>Overtime III</t>
-  </si>
-  <si>
-    <t>加班 I</t>
-  </si>
-  <si>
-    <t>加班 II</t>
-  </si>
-  <si>
-    <t>加班 III</t>
-  </si>
-  <si>
-    <t>扩张的限制 I</t>
-  </si>
-  <si>
-    <t>Limits to expansion I</t>
-  </si>
-  <si>
-    <t>Limits to expansion II</t>
-  </si>
-  <si>
-    <t>Limits to expansion III</t>
-  </si>
-  <si>
-    <t>扩张的限制 II</t>
-  </si>
-  <si>
-    <t>扩张的限制 III</t>
-  </si>
-  <si>
-    <t>Reducing the map I</t>
-  </si>
-  <si>
-    <t>Reducing the map II</t>
-  </si>
-  <si>
-    <t>Reducing the map III</t>
-  </si>
-  <si>
-    <t>缩小地图 I</t>
-  </si>
-  <si>
-    <t>缩小地图 II</t>
-  </si>
-  <si>
-    <t>缩小地图 III</t>
-  </si>
-  <si>
     <t>#localizationBuffData</t>
+  </si>
+  <si>
+    <t>Monster will attack for {0} seconds</t>
+  </si>
+  <si>
+    <t>怪物将进攻{0}秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Cooming soon!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击即将到来!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,16 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,33 +442,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A4:D18"/>
+  <dimension ref="A4:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,190 +478,36 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
